--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptExpenseResult.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptExpenseResult.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="4452" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="สรุปคำของบประมาณ" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">สรุปคำของบประมาณ!$3:$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -582,6 +585,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -717,7 +723,7 @@
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>